--- a/Data/Bilançolar/BTCIM.xlsx
+++ b/Data/Bilançolar/BTCIM.xlsx
@@ -13155,7 +13155,7 @@
         <v>2527108000</v>
       </c>
       <c r="C73" t="n">
-        <v>975206898</v>
+        <v>975207000</v>
       </c>
       <c r="D73" t="n">
         <v>1933796415</v>
@@ -13330,7 +13330,7 @@
         <v>-2014905000</v>
       </c>
       <c r="C74" t="n">
-        <v>-757004484</v>
+        <v>-757004000</v>
       </c>
       <c r="D74" t="n">
         <v>-1601863602</v>
@@ -13680,7 +13680,7 @@
         <v>512203000</v>
       </c>
       <c r="C76" t="n">
-        <v>218202414</v>
+        <v>218203000</v>
       </c>
       <c r="D76" t="n">
         <v>331932813</v>
@@ -14730,7 +14730,7 @@
         <v>512203000</v>
       </c>
       <c r="C82" t="n">
-        <v>218202414</v>
+        <v>218203000</v>
       </c>
       <c r="D82" t="n">
         <v>331932813</v>
@@ -14905,7 +14905,7 @@
         <v>-38507000</v>
       </c>
       <c r="C83" t="n">
-        <v>-28795741</v>
+        <v>-28796000</v>
       </c>
       <c r="D83" t="n">
         <v>-117274792</v>
@@ -15080,7 +15080,7 @@
         <v>-52212000</v>
       </c>
       <c r="C84" t="n">
-        <v>-25539005</v>
+        <v>-25539000</v>
       </c>
       <c r="D84" t="n">
         <v>-63548187</v>
@@ -15430,7 +15430,7 @@
         <v>113758000</v>
       </c>
       <c r="C86" t="n">
-        <v>46989936</v>
+        <v>46989000</v>
       </c>
       <c r="D86" t="n">
         <v>118371060</v>
@@ -15605,7 +15605,7 @@
         <v>-129895000</v>
       </c>
       <c r="C87" t="n">
-        <v>-49703199</v>
+        <v>-49703000</v>
       </c>
       <c r="D87" t="n">
         <v>-104758277</v>
@@ -15955,7 +15955,7 @@
         <v>405347000</v>
       </c>
       <c r="C89" t="n">
-        <v>161154405</v>
+        <v>161154000</v>
       </c>
       <c r="D89" t="n">
         <v>164722617</v>
@@ -16130,7 +16130,7 @@
         <v>421484000</v>
       </c>
       <c r="C90" t="n">
-        <v>163867668</v>
+        <v>163868000</v>
       </c>
       <c r="D90" t="n">
         <v>151109834</v>
@@ -16305,7 +16305,7 @@
         <v>2476000</v>
       </c>
       <c r="C91" t="n">
-        <v>878796</v>
+        <v>879000</v>
       </c>
       <c r="D91" t="n">
         <v>2624083</v>
@@ -17005,7 +17005,7 @@
         <v>311974000</v>
       </c>
       <c r="C95" t="n">
-        <v>162033201</v>
+        <v>162033000</v>
       </c>
       <c r="D95" t="n">
         <v>166612897</v>
@@ -17180,7 +17180,7 @@
         <v>24564000</v>
       </c>
       <c r="C96" t="n">
-        <v>15555706</v>
+        <v>15557000</v>
       </c>
       <c r="D96" t="n">
         <v>16939459</v>
@@ -17355,7 +17355,7 @@
         <v>-658095000</v>
       </c>
       <c r="C97" t="n">
-        <v>-247635224</v>
+        <v>-247635000</v>
       </c>
       <c r="D97" t="n">
         <v>-933140824</v>
@@ -17530,7 +17530,7 @@
         <v>-93373000</v>
       </c>
       <c r="C98" t="n">
-        <v>878796</v>
+        <v>879000</v>
       </c>
       <c r="D98" t="n">
         <v>1890280</v>
@@ -17705,7 +17705,7 @@
         <v>-321557000</v>
       </c>
       <c r="C99" t="n">
-        <v>-70046317</v>
+        <v>-70045000</v>
       </c>
       <c r="D99" t="n">
         <v>-749588468</v>
@@ -17880,7 +17880,7 @@
         <v>37029000</v>
       </c>
       <c r="C100" t="n">
-        <v>-4713358</v>
+        <v>-4714000</v>
       </c>
       <c r="D100" t="n">
         <v>-29554432</v>
@@ -18055,7 +18055,7 @@
         <v>-20973000</v>
       </c>
       <c r="C101" t="n">
-        <v>-8581324</v>
+        <v>-8582000</v>
       </c>
       <c r="D101" t="n">
         <v>-14416036</v>
@@ -18230,7 +18230,7 @@
         <v>58002000</v>
       </c>
       <c r="C102" t="n">
-        <v>3867966</v>
+        <v>3868000</v>
       </c>
       <c r="D102" t="n">
         <v>-15138396</v>
@@ -18580,7 +18580,7 @@
         <v>-284528000</v>
       </c>
       <c r="C104" t="n">
-        <v>-74759675</v>
+        <v>-74759000</v>
       </c>
       <c r="D104" t="n">
         <v>-779142900</v>
@@ -19105,7 +19105,7 @@
         <v>-284528000</v>
       </c>
       <c r="C107" t="n">
-        <v>-74759675</v>
+        <v>-74759000</v>
       </c>
       <c r="D107" t="n">
         <v>-779142900</v>
@@ -19455,7 +19455,7 @@
         <v>-117745000</v>
       </c>
       <c r="C109" t="n">
-        <v>-32924590</v>
+        <v>-32925000</v>
       </c>
       <c r="D109" t="n">
         <v>-174736288</v>
@@ -19630,7 +19630,7 @@
         <v>-166783000</v>
       </c>
       <c r="C110" t="n">
-        <v>-41835085</v>
+        <v>-41834000</v>
       </c>
       <c r="D110" t="n">
         <v>-604406612</v>
@@ -20855,7 +20855,7 @@
         <v>-658095000</v>
       </c>
       <c r="C117" t="n">
-        <v>-247635224</v>
+        <v>-247635000</v>
       </c>
       <c r="D117" t="n">
         <v>-933140824</v>
